--- a/results/mp/logistic/corona/confidence/126/stop-words-desired-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-desired-0.1/avg_0.004_scores.xlsx
@@ -40,27 +40,27 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
@@ -70,6 +70,9 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
@@ -79,9 +82,6 @@
     <t>special</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
@@ -91,73 +91,73 @@
     <t>safe</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>protect</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
     <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
@@ -529,7 +529,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -587,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.868421052631579</v>
+        <v>0.8561643835616438</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
@@ -661,13 +661,13 @@
         <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8493150684931506</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C5">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -737,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8108108108108109</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7222222222222222</v>
+        <v>0.5978835978835979</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7">
-        <v>0.9393939393939394</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.582010582010582</v>
+        <v>0.4844961240310077</v>
       </c>
       <c r="C8">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="D8">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
@@ -887,13 +887,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4689922480620155</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="C9">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>274</v>
+        <v>34</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
@@ -937,13 +937,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2885906040268457</v>
+        <v>0.2416107382550336</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
@@ -987,13 +987,13 @@
         <v>25</v>
       </c>
       <c r="K11">
-        <v>0.8984375</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L11">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="M11">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1039,13 +1039,13 @@
         <v>27</v>
       </c>
       <c r="K13">
-        <v>0.88125</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L13">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="M13">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1065,13 +1065,13 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>0.8773584905660378</v>
+        <v>0.8828125</v>
       </c>
       <c r="L14">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="M14">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1091,13 +1091,13 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.8620689655172413</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="M15">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1117,13 +1117,13 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.8611111111111112</v>
+        <v>0.8625</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1143,13 +1143,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.8536585365853658</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1169,13 +1169,13 @@
         <v>32</v>
       </c>
       <c r="K18">
-        <v>0.851063829787234</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1195,13 +1195,13 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.82</v>
+        <v>0.8125</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1221,13 +1221,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.8125</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1247,13 +1247,13 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.7936507936507936</v>
+        <v>0.775</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1273,13 +1273,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.775</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1299,13 +1299,13 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.7714285714285715</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1325,13 +1325,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.7470588235294118</v>
+        <v>0.7220338983050848</v>
       </c>
       <c r="L24">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="M24">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1351,13 +1351,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.7254237288135593</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L25">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="M25">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1377,13 +1377,13 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.7071129707112971</v>
+        <v>0.7</v>
       </c>
       <c r="L26">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1403,13 +1403,13 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.6966292134831461</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L27">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M27">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1429,13 +1429,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.6923076923076923</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L28">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M28">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1455,13 +1455,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.6808510638297872</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L29">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M29">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1481,13 +1481,13 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.6428571428571429</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L30">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M30">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1507,13 +1507,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5952380952380952</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1533,13 +1533,13 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5882352941176471</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1559,13 +1559,13 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4520547945205479</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1585,13 +1585,13 @@
         <v>48</v>
       </c>
       <c r="K34">
-        <v>0.3205128205128205</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
